--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H2">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I2">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J2">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N2">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O2">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P2">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q2">
-        <v>2.826325238561778</v>
+        <v>1.274094819091556</v>
       </c>
       <c r="R2">
-        <v>25.436927147056</v>
+        <v>11.466853371824</v>
       </c>
       <c r="S2">
-        <v>0.0007602309442329083</v>
+        <v>0.000115729697660248</v>
       </c>
       <c r="T2">
-        <v>0.0009477495663702117</v>
+        <v>0.0001575337913860879</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H3">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I3">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J3">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.586944</v>
       </c>
       <c r="O3">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P3">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q3">
-        <v>0.9744834087537778</v>
+        <v>0.3772758888248889</v>
       </c>
       <c r="R3">
-        <v>8.770350678783998</v>
+        <v>3.395482999424</v>
       </c>
       <c r="S3">
-        <v>0.0002621186096590824</v>
+        <v>3.426905430738446E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003267728057197446</v>
+        <v>4.664778498002045E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H4">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I4">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J4">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N4">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O4">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P4">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q4">
-        <v>4.829416420423556</v>
+        <v>3.354905639834</v>
       </c>
       <c r="R4">
-        <v>43.46474778381199</v>
+        <v>30.194150758506</v>
       </c>
       <c r="S4">
-        <v>0.001299026649622533</v>
+        <v>0.0003047357304643032</v>
       </c>
       <c r="T4">
-        <v>0.00161944466115539</v>
+        <v>0.0004148129301416152</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H5">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I5">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J5">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N5">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O5">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P5">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q5">
-        <v>20.001512633758</v>
+        <v>21.726557531175</v>
       </c>
       <c r="R5">
-        <v>120.009075802548</v>
+        <v>130.35934518705</v>
       </c>
       <c r="S5">
-        <v>0.005380049198932957</v>
+        <v>0.001973485722258621</v>
       </c>
       <c r="T5">
-        <v>0.004471395027190559</v>
+        <v>0.001790901237159289</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.130078666666667</v>
+        <v>0.4375153333333333</v>
       </c>
       <c r="H6">
-        <v>3.390236</v>
+        <v>1.312546</v>
       </c>
       <c r="I6">
-        <v>0.009293988592650694</v>
+        <v>0.002535486401940996</v>
       </c>
       <c r="J6">
-        <v>0.009350747007447273</v>
+        <v>0.002555908833496712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N6">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O6">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P6">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q6">
-        <v>5.920702876699556</v>
+        <v>1.180918199420667</v>
       </c>
       <c r="R6">
-        <v>53.286325890296</v>
+        <v>10.628263794786</v>
       </c>
       <c r="S6">
-        <v>0.001592563190203213</v>
+        <v>0.0001072661972504397</v>
       </c>
       <c r="T6">
-        <v>0.001985384947011368</v>
+        <v>0.0001460130898296994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>3.013073</v>
       </c>
       <c r="I7">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J7">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N7">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O7">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P7">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q7">
-        <v>2.511897185189778</v>
+        <v>2.924804691679112</v>
       </c>
       <c r="R7">
-        <v>22.607074666708</v>
+        <v>26.323242225112</v>
       </c>
       <c r="S7">
-        <v>0.0006756554209891824</v>
+        <v>0.0002656684240539047</v>
       </c>
       <c r="T7">
-        <v>0.0008423126381738005</v>
+        <v>0.0003616336596302562</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>3.013073</v>
       </c>
       <c r="I8">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J8">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.586944</v>
       </c>
       <c r="O8">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P8">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q8">
         <v>0.8660723465457778</v>
@@ -948,10 +948,10 @@
         <v>7.794651118911999</v>
       </c>
       <c r="S8">
-        <v>0.0002329579727078942</v>
+        <v>7.866784270350437E-05</v>
       </c>
       <c r="T8">
-        <v>0.0002904194038551912</v>
+        <v>0.000107084385182009</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>3.013073</v>
       </c>
       <c r="I9">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J9">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N9">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O9">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P9">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q9">
-        <v>4.292144919154556</v>
+        <v>7.701501967117</v>
       </c>
       <c r="R9">
-        <v>38.629304272391</v>
+        <v>69.313517704053</v>
       </c>
       <c r="S9">
-        <v>0.001154510224143132</v>
+        <v>0.0006995495789079161</v>
       </c>
       <c r="T9">
-        <v>0.001439281803249524</v>
+        <v>0.0009522421613113649</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>3.013073</v>
       </c>
       <c r="I10">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J10">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N10">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O10">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P10">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q10">
-        <v>17.7763488075565</v>
+        <v>49.87535970558751</v>
       </c>
       <c r="R10">
-        <v>106.658092845339</v>
+        <v>299.252158233525</v>
       </c>
       <c r="S10">
-        <v>0.004781519923679803</v>
+        <v>0.004530322400603827</v>
       </c>
       <c r="T10">
-        <v>0.003973953326187953</v>
+        <v>0.004111182513490004</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>3.013073</v>
       </c>
       <c r="I11">
-        <v>0.00826003443147433</v>
+        <v>0.005820447907772805</v>
       </c>
       <c r="J11">
-        <v>0.008310478485264795</v>
+        <v>0.005867329523437988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N11">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O11">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P11">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q11">
-        <v>5.262026000197556</v>
+        <v>2.710908982910333</v>
       </c>
       <c r="R11">
-        <v>47.358234001778</v>
+        <v>24.398180846193</v>
       </c>
       <c r="S11">
-        <v>0.001415390889954317</v>
+        <v>0.0002462396615036534</v>
       </c>
       <c r="T11">
-        <v>0.001764511313798327</v>
+        <v>0.000335186803824355</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H12">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I12">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J12">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N12">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O12">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P12">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q12">
-        <v>170.5069604829329</v>
+        <v>289.9900054080605</v>
       </c>
       <c r="R12">
-        <v>1534.562644346396</v>
+        <v>2609.910048672544</v>
       </c>
       <c r="S12">
-        <v>0.04586332308739702</v>
+        <v>0.02634062641766137</v>
       </c>
       <c r="T12">
-        <v>0.05717597382494954</v>
+        <v>0.03585543582115543</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H13">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I13">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J13">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.586944</v>
       </c>
       <c r="O13">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P13">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q13">
-        <v>58.78877696050489</v>
+        <v>85.86977625312711</v>
       </c>
       <c r="R13">
-        <v>529.098992644544</v>
+        <v>772.827986278144</v>
       </c>
       <c r="S13">
-        <v>0.01581312964594453</v>
+        <v>0.007799798802269067</v>
       </c>
       <c r="T13">
-        <v>0.01971359739904036</v>
+        <v>0.01061725643643647</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H14">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I14">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J14">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N14">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O14">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P14">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q14">
-        <v>291.3497369367907</v>
+        <v>763.592387364604</v>
       </c>
       <c r="R14">
-        <v>2622.147632431117</v>
+        <v>6872.331486281436</v>
       </c>
       <c r="S14">
-        <v>0.07836786884660747</v>
+        <v>0.06935929320266887</v>
       </c>
       <c r="T14">
-        <v>0.09769809329673264</v>
+        <v>0.09441338435146428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H15">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I15">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J15">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N15">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O15">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P15">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q15">
-        <v>1206.654166234066</v>
+        <v>4945.06722855705</v>
       </c>
       <c r="R15">
-        <v>7239.924997404392</v>
+        <v>29670.4033713423</v>
       </c>
       <c r="S15">
-        <v>0.3245683913665569</v>
+        <v>0.4491746820527516</v>
       </c>
       <c r="T15">
-        <v>0.2697509702006996</v>
+        <v>0.4076175898897558</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.17555033333333</v>
+        <v>99.58055866666666</v>
       </c>
       <c r="H16">
-        <v>204.526651</v>
+        <v>298.741676</v>
       </c>
       <c r="I16">
-        <v>0.5606890969499025</v>
+        <v>0.577088694179909</v>
       </c>
       <c r="J16">
-        <v>0.5641132268613344</v>
+        <v>0.5817369361698658</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N16">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O16">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P16">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q16">
-        <v>357.1850251538318</v>
+        <v>268.7825661834573</v>
       </c>
       <c r="R16">
-        <v>3214.665226384486</v>
+        <v>2419.043095651116</v>
       </c>
       <c r="S16">
-        <v>0.09607638400339655</v>
+        <v>0.02441429370455813</v>
       </c>
       <c r="T16">
-        <v>0.1197745921399123</v>
+        <v>0.03323326967105378</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H17">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I17">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J17">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N17">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O17">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P17">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q17">
-        <v>5.537646221767999</v>
+        <v>12.04547162734533</v>
       </c>
       <c r="R17">
-        <v>33.22587733060799</v>
+        <v>72.272829764072</v>
       </c>
       <c r="S17">
-        <v>0.001489527800468128</v>
+        <v>0.00109412483962671</v>
       </c>
       <c r="T17">
-        <v>0.001237956560173508</v>
+        <v>0.0009928977477737227</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H18">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I18">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J18">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.586944</v>
       </c>
       <c r="O18">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P18">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q18">
-        <v>1.909314714752</v>
+        <v>3.566819318645333</v>
       </c>
       <c r="R18">
-        <v>11.455888288512</v>
+        <v>21.400915911872</v>
       </c>
       <c r="S18">
-        <v>0.0005135715128002497</v>
+        <v>0.0003239844595317308</v>
       </c>
       <c r="T18">
-        <v>0.000426832733964072</v>
+        <v>0.0002940098136264717</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H19">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I19">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J19">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N19">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O19">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P19">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q19">
-        <v>9.462322038885999</v>
+        <v>31.7177498028405</v>
       </c>
       <c r="R19">
-        <v>56.77393223331599</v>
+        <v>190.306498817043</v>
       </c>
       <c r="S19">
-        <v>0.002545195407842984</v>
+        <v>0.002881014458377094</v>
       </c>
       <c r="T19">
-        <v>0.00211532899961482</v>
+        <v>0.002614466524681135</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H20">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I20">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J20">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N20">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O20">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P20">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q20">
-        <v>39.189156065541</v>
+        <v>205.4059308460687</v>
       </c>
       <c r="R20">
-        <v>156.756624262164</v>
+        <v>821.623723384275</v>
       </c>
       <c r="S20">
-        <v>0.0105411821374661</v>
+        <v>0.01865761159863026</v>
       </c>
       <c r="T20">
-        <v>0.005840564853263684</v>
+        <v>0.01128762146340157</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.214174</v>
+        <v>4.1363315</v>
       </c>
       <c r="H21">
-        <v>4.428348</v>
+        <v>8.272663</v>
       </c>
       <c r="I21">
-        <v>0.01820980123343368</v>
+        <v>0.02397084507248554</v>
       </c>
       <c r="J21">
-        <v>0.01221400569427471</v>
+        <v>0.01610928107528529</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N21">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O21">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P21">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q21">
-        <v>11.600490087988</v>
+        <v>11.1645667592305</v>
       </c>
       <c r="R21">
-        <v>69.602940527928</v>
+        <v>66.98740055538299</v>
       </c>
       <c r="S21">
-        <v>0.003120324374856211</v>
+        <v>0.001014109716319749</v>
       </c>
       <c r="T21">
-        <v>0.002593322547258628</v>
+        <v>0.0009202855258023951</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H22">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I22">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J22">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N22">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O22">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P22">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q22">
-        <v>122.7196786793062</v>
+        <v>196.2707120696392</v>
       </c>
       <c r="R22">
-        <v>1104.477108113756</v>
+        <v>1766.436408626752</v>
       </c>
       <c r="S22">
-        <v>0.0330093988920408</v>
+        <v>0.01782783339749903</v>
       </c>
       <c r="T22">
-        <v>0.04115149971649731</v>
+        <v>0.02426763608726018</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H23">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I23">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J23">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.586944</v>
       </c>
       <c r="O23">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P23">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q23">
-        <v>42.31228917639822</v>
+        <v>58.11828620350578</v>
       </c>
       <c r="R23">
-        <v>380.810602587584</v>
+        <v>523.064575831552</v>
       </c>
       <c r="S23">
-        <v>0.01138124909134586</v>
+        <v>0.005279051127183147</v>
       </c>
       <c r="T23">
-        <v>0.01418854885203117</v>
+        <v>0.007185959661171902</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H24">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I24">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J24">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N24">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O24">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P24">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q24">
-        <v>209.6943491275375</v>
+        <v>516.813748074232</v>
       </c>
       <c r="R24">
-        <v>1887.249142147837</v>
+        <v>4651.323732668088</v>
       </c>
       <c r="S24">
-        <v>0.05640402982023913</v>
+        <v>0.04694367947743179</v>
       </c>
       <c r="T24">
-        <v>0.07031665207682834</v>
+        <v>0.06390076150897353</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H25">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I25">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J25">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N25">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O25">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P25">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q25">
-        <v>868.4701852515456</v>
+        <v>3346.9148869989</v>
       </c>
       <c r="R25">
-        <v>5210.821111509274</v>
+        <v>20081.4893219934</v>
       </c>
       <c r="S25">
-        <v>0.233602948437698</v>
+        <v>0.3040099073969563</v>
       </c>
       <c r="T25">
-        <v>0.1941489795648227</v>
+        <v>0.2758832826227767</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.06827033333334</v>
+        <v>67.39800266666667</v>
       </c>
       <c r="H26">
-        <v>147.204811</v>
+        <v>202.194008</v>
       </c>
       <c r="I26">
-        <v>0.4035470787925388</v>
+        <v>0.3905845264378918</v>
       </c>
       <c r="J26">
-        <v>0.4060115419516788</v>
+        <v>0.3937305443979143</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N26">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O26">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P26">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q26">
-        <v>257.0782529451385</v>
+        <v>181.9171167037253</v>
       </c>
       <c r="R26">
-        <v>2313.704276506246</v>
+        <v>1637.254050333528</v>
       </c>
       <c r="S26">
-        <v>0.06914945255121502</v>
+        <v>0.01652405503882149</v>
       </c>
       <c r="T26">
-        <v>0.08620586174149929</v>
+        <v>0.02249290451773192</v>
       </c>
     </row>
   </sheetData>
